--- a/testes_gemini/testes_camila_1a50.xlsx
+++ b/testes_gemini/testes_camila_1a50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive\Área de Trabalho\INSPER\entidades\insper data\2025.1\aecom\repositorio\Projeto_InsperData_AECOM\testes_gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DD392C-0EC4-44D7-BF39-78F82170D004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77F4F5A-582C-4BD3-919F-5F3BBE2230FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="255">
   <si>
     <t>processoAnexoID</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Processo administrativo</t>
   </si>
   <si>
-    <t>R$ 3.807.896,40</t>
-  </si>
-  <si>
     <t>Desativação e desmobilização completa do parque industrial, remoção de passivos ambientais, destinação correta de resíduos e estudo de investigação de passivo ambiental</t>
   </si>
   <si>
@@ -632,13 +629,172 @@
   </si>
   <si>
     <t>Assunto Principal: Flora</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/9d04a7ce4bf3c77d8b3be4cfbadeba93.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/e512fdd683d211f1d35a16c9f7d99833.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/80b47c8d75bae600787aca7608ba3d14.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/588fa00346ccfa5286bf6dd555d325d1.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/f262789ad3d60954463d32a71fe5fc7b.html</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/51644135dd7d32712547e1e91334d423.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/b9775f943d51dfe696d39217e7a578a3.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/6a7cee8b71f2a8d34f9f863c57c38bd3.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/0584da20569c9a4611514b6662479d93.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/9d774ad2a90a20b4bb93f177b079592a.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/387f948353a4235bfa99470c1cbec98e.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/f034ef22fdb13e98e08ba9b1a451cd73.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/c84e7a527dcf175cafbab56f420c58a9.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/0cacd6d80c499ae25dcb85380a07c3dd.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/90df1f9ac9917f6df4b9f91915b3a8bd.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/c89c7a26febccd44703bb340de170f09.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/585fdfebfdd6d2ded0146d6b79813e2f.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/6be7e9beac86d76d02b031e258dd81f3.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/209b98634c9c4a3f7c83d1c521c5b8d6.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/9e6f89021ad2692964ba32eda8dbf752.html</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/d6ecb52b7493cb254b3188065a7134be.html</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/ae7e8fe9bd0ffaae6c5a50b0550ad270.html</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/2e196251a32e640f42b5b1fae06c7329.html</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/a00473a504122143575a731b7c39ca8c.html</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/95b9349b12d1987412f17a791acc906a.html</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/7cef4bd654c356d84d7a617351f802cc.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/1c8e3d1ddaf02c96f790919dedcc2c98.html</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/d5d876cd4f1b1b52385f1ec4df9886ba.html</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/3c06d880622cb6b027242835177f7a1c.html</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/24586eb78e174455c03d488d6518e16c.html</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/be70db0dae0a1d1f18eb65dfd5523e76.html</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/806b3bed99f6b144980640e291ea43f5.html</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/7cce4fed8abf878e5603e6b0f5562673.html</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/81ecf2169bea0a34068e17cd743b84df.html</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/4d9968d3a030fe7f959689bec23ac635.html</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/1cdff09e1ed2c127e91f31e5a5d223ac.html</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/5631abc57e085f5121b0ead2d78e9e85.html</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/25afbf7fded56e9b963e05b9f2b6bb1b.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/af2e31ab1171eebaf9eaba7298a863f1.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/39dff1c665a4058e993ad23403b74d3f.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/baa70e5f7e80b87ec2513996dc999998.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/b66f11432ff40098fd8950223d3646fe.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/c1189054a28c83134ddf407f0fdffbee.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/5ab34519c8f96370d71c5affafa94856.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/2adc94fb608d82c11c7f4219ac8047ab.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/7abb2bb3a616fe9ad8b1afce31c62239.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/4dee720275cd555776cfe8fec5a8f850.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/5d8aab62f8e899e0548a3351bf2b909c.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/022654bfd5f168991681b8326f6fbddf.pdf</t>
+  </si>
+  <si>
+    <t>http://jud-anexos.digesto.com.br/09384bc8a7a2ba5e022ef454deefda12.pdf</t>
+  </si>
+  <si>
+    <t>"motivo de não ter área: ex - não foi demarcada</t>
+  </si>
+  <si>
+    <t>motivo: texto não legível pela IA, o que faz com que ele invente motivos. Por isso, adicionar ao prompt: responda apenas com base no texto, caso não haja, retorne: uma coluna como false (para legivel) para aqueles que sejam legiveis, retorne True</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,13 +808,40 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -685,16 +868,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -995,19 +1192,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,14 +1250,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>2643544408</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>652049379</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
@@ -1097,15 +1296,18 @@
       <c r="O2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="R2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2643544419</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>652049379</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
@@ -1144,15 +1346,18 @@
       <c r="O3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="R3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2643544426</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>652049379</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
@@ -1191,15 +1396,18 @@
       <c r="O4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="R4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>590939495</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>612465137</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D5" t="s">
@@ -1238,15 +1446,18 @@
       <c r="O5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="R5" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>590939496</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>612465137</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
@@ -1285,15 +1496,21 @@
       <c r="O6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="R6" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>590939497</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>612465137</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
@@ -1332,62 +1549,73 @@
       <c r="O7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="R7" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>1186042345</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>582564055</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="K8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>2589045924</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>690025576</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D9" t="s">
@@ -1420,25 +1648,28 @@
       <c r="M9" t="s">
         <v>55</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="8">
+        <v>3807896.4</v>
+      </c>
+      <c r="O9" t="s">
         <v>56</v>
       </c>
-      <c r="O9" t="s">
+      <c r="R9" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2589045929</v>
+      </c>
+      <c r="B10" s="3">
+        <v>690025576</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2589045929</v>
-      </c>
-      <c r="B10">
-        <v>690025576</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1450,7 +1681,7 @@
         <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
         <v>20</v>
@@ -1473,8 +1704,11 @@
       <c r="O10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R10" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2589045772</v>
       </c>
@@ -1485,7 +1719,7 @@
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -1497,7 +1731,7 @@
         <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -1515,13 +1749,16 @@
         <v>55</v>
       </c>
       <c r="N11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" t="s">
         <v>61</v>
       </c>
-      <c r="O11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R11" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2589045719</v>
       </c>
@@ -1532,7 +1769,7 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -1544,22 +1781,22 @@
         <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
         <v>20</v>
       </c>
       <c r="J12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" t="s">
         <v>64</v>
-      </c>
-      <c r="K12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" t="s">
-        <v>65</v>
       </c>
       <c r="N12" t="s">
         <v>25</v>
@@ -1567,8 +1804,11 @@
       <c r="O12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R12" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>500766896</v>
       </c>
@@ -1579,19 +1819,19 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>67</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>68</v>
-      </c>
-      <c r="H13" t="s">
-        <v>69</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -1606,7 +1846,7 @@
         <v>31</v>
       </c>
       <c r="M13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N13" t="s">
         <v>25</v>
@@ -1614,8 +1854,11 @@
       <c r="O13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1182707024</v>
       </c>
@@ -1626,13 +1869,13 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
         <v>71</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>72</v>
       </c>
       <c r="G14" t="s">
         <v>28</v>
@@ -1661,8 +1904,11 @@
       <c r="O14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2344968081</v>
       </c>
@@ -1673,43 +1919,46 @@
         <v>35</v>
       </c>
       <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
         <v>73</v>
       </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>74</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>75</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
         <v>76</v>
       </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>77</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>78</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>79</v>
-      </c>
-      <c r="M15" t="s">
-        <v>80</v>
       </c>
       <c r="N15" t="s">
         <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="R15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2294638461</v>
       </c>
@@ -1720,43 +1969,46 @@
         <v>35</v>
       </c>
       <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
         <v>82</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s">
         <v>83</v>
-      </c>
-      <c r="F16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s">
-        <v>84</v>
       </c>
       <c r="I16" t="s">
         <v>41</v>
       </c>
       <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" t="s">
         <v>85</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>86</v>
       </c>
-      <c r="L16" t="s">
-        <v>87</v>
-      </c>
       <c r="M16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N16" t="s">
         <v>25</v>
       </c>
       <c r="O16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="R16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1511375012</v>
       </c>
@@ -1767,19 +2019,19 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
         <v>89</v>
       </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>90</v>
-      </c>
-      <c r="H17" t="s">
-        <v>91</v>
       </c>
       <c r="I17" t="s">
         <v>20</v>
@@ -1794,7 +2046,7 @@
         <v>31</v>
       </c>
       <c r="M17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" t="s">
         <v>25</v>
@@ -1802,8 +2054,11 @@
       <c r="O17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1504080402</v>
       </c>
@@ -1814,19 +2069,19 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" t="s">
         <v>93</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" t="s">
-        <v>94</v>
       </c>
       <c r="I18" t="s">
         <v>20</v>
@@ -1844,13 +2099,16 @@
         <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2419043700</v>
       </c>
@@ -1861,19 +2119,19 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s">
         <v>20</v>
@@ -1891,13 +2149,16 @@
         <v>24</v>
       </c>
       <c r="N19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1915313002</v>
       </c>
@@ -1908,43 +2169,46 @@
         <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s">
         <v>28</v>
       </c>
       <c r="H20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
         <v>99</v>
       </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" t="s">
         <v>100</v>
       </c>
-      <c r="K20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>101</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>102</v>
       </c>
-      <c r="O20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2317529292</v>
       </c>
@@ -1955,19 +2219,19 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
         <v>104</v>
       </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>105</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>106</v>
-      </c>
-      <c r="H21" t="s">
-        <v>107</v>
       </c>
       <c r="I21" t="s">
         <v>20</v>
@@ -1985,13 +2249,16 @@
         <v>24</v>
       </c>
       <c r="N21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2366908896</v>
       </c>
@@ -2002,19 +2269,19 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
         <v>104</v>
       </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>105</v>
       </c>
-      <c r="G22" t="s">
-        <v>106</v>
-      </c>
       <c r="H22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I22" t="s">
         <v>20</v>
@@ -2032,13 +2299,16 @@
         <v>24</v>
       </c>
       <c r="N22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1398082646</v>
       </c>
@@ -2049,34 +2319,34 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
         <v>110</v>
       </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>111</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
         <v>112</v>
       </c>
-      <c r="I23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" t="s">
         <v>113</v>
-      </c>
-      <c r="K23" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" t="s">
-        <v>114</v>
       </c>
       <c r="N23" t="s">
         <v>25</v>
@@ -2084,8 +2354,11 @@
       <c r="O23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2730540388</v>
       </c>
@@ -2096,43 +2369,46 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" t="s">
         <v>115</v>
       </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>116</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
         <v>117</v>
       </c>
-      <c r="I24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
         <v>118</v>
       </c>
-      <c r="K24" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>119</v>
-      </c>
-      <c r="N24" t="s">
-        <v>120</v>
       </c>
       <c r="O24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2281647799</v>
       </c>
@@ -2143,19 +2419,19 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" t="s">
         <v>121</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" t="s">
-        <v>122</v>
       </c>
       <c r="I25" t="s">
         <v>20</v>
@@ -2173,13 +2449,16 @@
         <v>32</v>
       </c>
       <c r="N25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2837041554</v>
       </c>
@@ -2190,19 +2469,19 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" t="s">
         <v>124</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26" t="s">
-        <v>125</v>
       </c>
       <c r="I26" t="s">
         <v>20</v>
@@ -2217,16 +2496,19 @@
         <v>31</v>
       </c>
       <c r="M26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>269166848</v>
       </c>
@@ -2237,19 +2519,19 @@
         <v>35</v>
       </c>
       <c r="D27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
         <v>127</v>
       </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>128</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>129</v>
-      </c>
-      <c r="H27" t="s">
-        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>41</v>
@@ -2264,7 +2546,7 @@
         <v>31</v>
       </c>
       <c r="M27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N27" t="s">
         <v>25</v>
@@ -2272,8 +2554,11 @@
       <c r="O27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>727874545</v>
       </c>
@@ -2284,19 +2569,19 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
       </c>
       <c r="F28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" t="s">
         <v>128</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>129</v>
-      </c>
-      <c r="H28" t="s">
-        <v>130</v>
       </c>
       <c r="I28" t="s">
         <v>41</v>
@@ -2319,8 +2604,11 @@
       <c r="O28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1526470307</v>
       </c>
@@ -2331,19 +2619,19 @@
         <v>35</v>
       </c>
       <c r="D29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" t="s">
         <v>132</v>
       </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>133</v>
-      </c>
-      <c r="H29" t="s">
-        <v>134</v>
       </c>
       <c r="I29" t="s">
         <v>20</v>
@@ -2358,16 +2646,19 @@
         <v>31</v>
       </c>
       <c r="M29" t="s">
+        <v>134</v>
+      </c>
+      <c r="N29" t="s">
         <v>135</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>136</v>
       </c>
-      <c r="O29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1526470365</v>
       </c>
@@ -2378,19 +2669,19 @@
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
         <v>28</v>
       </c>
       <c r="H30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I30" t="s">
         <v>20</v>
@@ -2405,7 +2696,7 @@
         <v>31</v>
       </c>
       <c r="M30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N30" t="s">
         <v>25</v>
@@ -2413,8 +2704,11 @@
       <c r="O30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>113620662</v>
       </c>
@@ -2425,43 +2719,46 @@
         <v>35</v>
       </c>
       <c r="D31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s">
         <v>141</v>
-      </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" t="s">
-        <v>142</v>
       </c>
       <c r="I31" t="s">
         <v>41</v>
       </c>
       <c r="J31" t="s">
+        <v>142</v>
+      </c>
+      <c r="K31" t="s">
         <v>143</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
+        <v>86</v>
+      </c>
+      <c r="M31" t="s">
         <v>144</v>
       </c>
-      <c r="L31" t="s">
-        <v>87</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>145</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>146</v>
       </c>
-      <c r="O31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2868300725</v>
       </c>
@@ -2472,19 +2769,19 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" t="s">
         <v>148</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" t="s">
-        <v>106</v>
-      </c>
-      <c r="H32" t="s">
-        <v>149</v>
       </c>
       <c r="I32" t="s">
         <v>20</v>
@@ -2499,7 +2796,7 @@
         <v>31</v>
       </c>
       <c r="M32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N32" t="s">
         <v>33</v>
@@ -2507,8 +2804,11 @@
       <c r="O32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2285631988</v>
       </c>
@@ -2519,43 +2819,46 @@
         <v>14</v>
       </c>
       <c r="D33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" t="s">
         <v>151</v>
       </c>
-      <c r="E33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>152</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
         <v>153</v>
       </c>
-      <c r="I33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" t="s">
+        <v>113</v>
+      </c>
+      <c r="N33" t="s">
         <v>154</v>
-      </c>
-      <c r="K33" t="s">
-        <v>30</v>
-      </c>
-      <c r="L33" t="s">
-        <v>31</v>
-      </c>
-      <c r="M33" t="s">
-        <v>114</v>
-      </c>
-      <c r="N33" t="s">
-        <v>155</v>
       </c>
       <c r="O33" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R33" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1394061051</v>
       </c>
@@ -2566,26 +2869,26 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E34" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
         <v>28</v>
       </c>
       <c r="H34" t="s">
+        <v>156</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
         <v>157</v>
       </c>
-      <c r="I34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" t="s">
-        <v>158</v>
-      </c>
       <c r="K34" t="s">
         <v>30</v>
       </c>
@@ -2593,16 +2896,19 @@
         <v>31</v>
       </c>
       <c r="M34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O34" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1394061056</v>
       </c>
@@ -2613,19 +2919,19 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G35" t="s">
         <v>28</v>
       </c>
       <c r="H35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I35" t="s">
         <v>20</v>
@@ -2640,16 +2946,19 @@
         <v>31</v>
       </c>
       <c r="M35" t="s">
+        <v>159</v>
+      </c>
+      <c r="N35" t="s">
         <v>160</v>
-      </c>
-      <c r="N35" t="s">
-        <v>161</v>
       </c>
       <c r="O35" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1857948406</v>
       </c>
@@ -2660,19 +2969,19 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" t="s">
         <v>162</v>
       </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>163</v>
-      </c>
-      <c r="H36" t="s">
-        <v>164</v>
       </c>
       <c r="I36" t="s">
         <v>20</v>
@@ -2687,16 +2996,19 @@
         <v>31</v>
       </c>
       <c r="M36" t="s">
+        <v>159</v>
+      </c>
+      <c r="N36" t="s">
         <v>160</v>
-      </c>
-      <c r="N36" t="s">
-        <v>161</v>
       </c>
       <c r="O36" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2483322694</v>
       </c>
@@ -2707,19 +3019,19 @@
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G37" t="s">
+        <v>164</v>
+      </c>
+      <c r="H37" t="s">
         <v>165</v>
-      </c>
-      <c r="H37" t="s">
-        <v>166</v>
       </c>
       <c r="I37" t="s">
         <v>20</v>
@@ -2734,7 +3046,7 @@
         <v>31</v>
       </c>
       <c r="M37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N37" t="s">
         <v>25</v>
@@ -2742,8 +3054,11 @@
       <c r="O37" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2451722545</v>
       </c>
@@ -2754,19 +3069,19 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" t="s">
         <v>167</v>
       </c>
-      <c r="E38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>168</v>
-      </c>
-      <c r="H38" t="s">
-        <v>169</v>
       </c>
       <c r="I38" t="s">
         <v>20</v>
@@ -2784,13 +3099,16 @@
         <v>24</v>
       </c>
       <c r="N38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1419499656</v>
       </c>
@@ -2801,25 +3119,25 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
         <v>170</v>
       </c>
-      <c r="E39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>171</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
         <v>172</v>
-      </c>
-      <c r="H39" t="s">
-        <v>91</v>
-      </c>
-      <c r="I39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" t="s">
-        <v>173</v>
       </c>
       <c r="K39" t="s">
         <v>30</v>
@@ -2831,13 +3149,16 @@
         <v>24</v>
       </c>
       <c r="N39" t="s">
+        <v>173</v>
+      </c>
+      <c r="O39" t="s">
         <v>174</v>
       </c>
-      <c r="O39" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1176565039</v>
       </c>
@@ -2848,19 +3169,19 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" t="s">
+        <v>171</v>
+      </c>
+      <c r="H40" t="s">
         <v>176</v>
-      </c>
-      <c r="E40" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" t="s">
-        <v>171</v>
-      </c>
-      <c r="G40" t="s">
-        <v>172</v>
-      </c>
-      <c r="H40" t="s">
-        <v>177</v>
       </c>
       <c r="I40" t="s">
         <v>20</v>
@@ -2878,13 +3199,16 @@
         <v>24</v>
       </c>
       <c r="N40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O40" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1342899600</v>
       </c>
@@ -2895,43 +3219,46 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" t="s">
+        <v>171</v>
+      </c>
+      <c r="H41" t="s">
         <v>178</v>
       </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" t="s">
-        <v>171</v>
-      </c>
-      <c r="G41" t="s">
-        <v>172</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
         <v>179</v>
       </c>
-      <c r="I41" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" t="s">
         <v>180</v>
       </c>
-      <c r="K41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L41" t="s">
-        <v>31</v>
-      </c>
-      <c r="M41" t="s">
-        <v>181</v>
-      </c>
       <c r="N41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O41" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1608281101</v>
       </c>
@@ -2942,43 +3269,46 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H42" t="s">
         <v>182</v>
       </c>
-      <c r="E42" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G42" t="s">
-        <v>172</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
         <v>183</v>
       </c>
-      <c r="I42" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M42" t="s">
+        <v>180</v>
+      </c>
+      <c r="N42" t="s">
         <v>184</v>
-      </c>
-      <c r="K42" t="s">
-        <v>30</v>
-      </c>
-      <c r="L42" t="s">
-        <v>31</v>
-      </c>
-      <c r="M42" t="s">
-        <v>181</v>
-      </c>
-      <c r="N42" t="s">
-        <v>185</v>
       </c>
       <c r="O42" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2092274269</v>
       </c>
@@ -2989,43 +3319,46 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" t="s">
+        <v>171</v>
+      </c>
+      <c r="H43" t="s">
         <v>182</v>
       </c>
-      <c r="E43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" t="s">
-        <v>171</v>
-      </c>
-      <c r="G43" t="s">
-        <v>172</v>
-      </c>
-      <c r="H43" t="s">
-        <v>183</v>
-      </c>
       <c r="I43" t="s">
         <v>20</v>
       </c>
       <c r="J43" t="s">
+        <v>185</v>
+      </c>
+      <c r="K43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43" t="s">
+        <v>180</v>
+      </c>
+      <c r="N43" t="s">
         <v>186</v>
-      </c>
-      <c r="K43" t="s">
-        <v>30</v>
-      </c>
-      <c r="L43" t="s">
-        <v>31</v>
-      </c>
-      <c r="M43" t="s">
-        <v>181</v>
-      </c>
-      <c r="N43" t="s">
-        <v>187</v>
       </c>
       <c r="O43" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R43" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1468979593</v>
       </c>
@@ -3036,19 +3369,19 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" t="s">
         <v>188</v>
-      </c>
-      <c r="E44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" t="s">
-        <v>171</v>
-      </c>
-      <c r="G44" t="s">
-        <v>172</v>
-      </c>
-      <c r="H44" t="s">
-        <v>189</v>
       </c>
       <c r="I44" t="s">
         <v>20</v>
@@ -3063,16 +3396,19 @@
         <v>31</v>
       </c>
       <c r="M44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N44" t="s">
         <v>25</v>
       </c>
       <c r="O44" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="R44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2344968075</v>
       </c>
@@ -3083,25 +3419,25 @@
         <v>35</v>
       </c>
       <c r="D45" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
         <v>191</v>
-      </c>
-      <c r="E45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H45" t="s">
-        <v>76</v>
-      </c>
-      <c r="I45" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" t="s">
-        <v>192</v>
       </c>
       <c r="K45" t="s">
         <v>30</v>
@@ -3118,8 +3454,11 @@
       <c r="O45" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R45" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2294638419</v>
       </c>
@@ -3130,25 +3469,25 @@
         <v>35</v>
       </c>
       <c r="D46" t="s">
+        <v>192</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" t="s">
         <v>193</v>
-      </c>
-      <c r="E46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" t="s">
-        <v>74</v>
-      </c>
-      <c r="G46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H46" t="s">
-        <v>194</v>
       </c>
       <c r="I46" t="s">
         <v>41</v>
       </c>
       <c r="J46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K46" t="s">
         <v>30</v>
@@ -3165,8 +3504,11 @@
       <c r="O46" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R46" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2294638453</v>
       </c>
@@ -3177,19 +3519,19 @@
         <v>35</v>
       </c>
       <c r="D47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E47" t="s">
         <v>16</v>
       </c>
       <c r="F47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s">
         <v>74</v>
       </c>
-      <c r="G47" t="s">
-        <v>75</v>
-      </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I47" t="s">
         <v>41</v>
@@ -3212,8 +3554,11 @@
       <c r="O47" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1915312980</v>
       </c>
@@ -3224,19 +3569,19 @@
         <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E48" t="s">
         <v>16</v>
       </c>
       <c r="F48" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" t="s">
         <v>74</v>
       </c>
-      <c r="G48" t="s">
-        <v>75</v>
-      </c>
       <c r="H48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I48" t="s">
         <v>20</v>
@@ -3251,16 +3596,19 @@
         <v>31</v>
       </c>
       <c r="M48" t="s">
+        <v>197</v>
+      </c>
+      <c r="N48" t="s">
         <v>198</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>199</v>
       </c>
-      <c r="O48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R48" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1915312990</v>
       </c>
@@ -3271,19 +3619,19 @@
         <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s">
         <v>16</v>
       </c>
       <c r="F49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" t="s">
         <v>74</v>
       </c>
-      <c r="G49" t="s">
-        <v>75</v>
-      </c>
       <c r="H49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I49" t="s">
         <v>20</v>
@@ -3306,8 +3654,11 @@
       <c r="O49" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R49" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1915313013</v>
       </c>
@@ -3318,19 +3669,19 @@
         <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E50" t="s">
         <v>16</v>
       </c>
       <c r="F50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" t="s">
         <v>74</v>
       </c>
-      <c r="G50" t="s">
-        <v>75</v>
-      </c>
       <c r="H50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I50" t="s">
         <v>20</v>
@@ -3353,8 +3704,11 @@
       <c r="O50" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2369738039</v>
       </c>
@@ -3365,19 +3719,19 @@
         <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E51" t="s">
         <v>16</v>
       </c>
       <c r="F51" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" t="s">
         <v>74</v>
       </c>
-      <c r="G51" t="s">
-        <v>75</v>
-      </c>
       <c r="H51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I51" t="s">
         <v>20</v>
@@ -3400,8 +3754,21 @@
       <c r="O51" t="s">
         <v>26</v>
       </c>
+      <c r="R51" t="s">
+        <v>252</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R5" r:id="rId1" xr:uid="{326279BF-2407-42D8-ACBA-573EF881A69A}"/>
+    <hyperlink ref="R6" r:id="rId2" xr:uid="{0EEEE5C4-F8DF-4E83-816D-935EDDF2CAAD}"/>
+    <hyperlink ref="R7" r:id="rId3" xr:uid="{10217A7D-C6E3-4966-8911-CF2520E50FE0}"/>
+    <hyperlink ref="R8" r:id="rId4" xr:uid="{4CDC6776-6B8A-4F23-B994-8D4D693DAD6F}"/>
+    <hyperlink ref="R9" r:id="rId5" xr:uid="{21EC1E8F-2382-4B5D-BC06-4470C1A77872}"/>
+    <hyperlink ref="R10" r:id="rId6" xr:uid="{96C6EBC9-BF91-4A7C-ABDA-CFA209A48989}"/>
+    <hyperlink ref="R11" r:id="rId7" xr:uid="{C0EC26B9-0B18-4AF7-A4FD-CF6C360084DF}"/>
+    <hyperlink ref="R12" r:id="rId8" xr:uid="{E527028C-F4EE-4DB9-A66D-FA05AA39ABD7}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>